--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il18-Il18r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il18-Il18r1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.855689333333334</v>
+        <v>3.855689333333333</v>
       </c>
       <c r="H2">
         <v>11.567068</v>
       </c>
       <c r="I2">
-        <v>0.1340401150840085</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="J2">
-        <v>0.1340401150840085</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,22 +558,22 @@
         <v>0.073755</v>
       </c>
       <c r="O2">
-        <v>0.08088989301323213</v>
+        <v>0.1284798252444435</v>
       </c>
       <c r="P2">
-        <v>0.08088989301323214</v>
+        <v>0.1284798252444435</v>
       </c>
       <c r="Q2">
-        <v>0.09479212226</v>
+        <v>0.09479212225999999</v>
       </c>
       <c r="R2">
-        <v>0.8531291003400001</v>
+        <v>0.8531291003399999</v>
       </c>
       <c r="S2">
-        <v>0.01084249056862677</v>
+        <v>0.01944301313750346</v>
       </c>
       <c r="T2">
-        <v>0.01084249056862677</v>
+        <v>0.01944301313750346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.855689333333334</v>
+        <v>3.855689333333333</v>
       </c>
       <c r="H3">
         <v>11.567068</v>
       </c>
       <c r="I3">
-        <v>0.1340401150840085</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="J3">
-        <v>0.1340401150840085</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2793466666666667</v>
+        <v>0.166768</v>
       </c>
       <c r="N3">
-        <v>0.83804</v>
+        <v>0.500304</v>
       </c>
       <c r="O3">
-        <v>0.9191101069867678</v>
+        <v>0.8715201747555565</v>
       </c>
       <c r="P3">
-        <v>0.9191101069867679</v>
+        <v>0.8715201747555564</v>
       </c>
       <c r="Q3">
-        <v>1.077073962968889</v>
+        <v>0.6430055987413332</v>
       </c>
       <c r="R3">
-        <v>9.693665666720001</v>
+        <v>5.787050388671999</v>
       </c>
       <c r="S3">
-        <v>0.1231976245153818</v>
+        <v>0.131888241403912</v>
       </c>
       <c r="T3">
-        <v>0.1231976245153818</v>
+        <v>0.131888241403912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.903429</v>
+        <v>5.360192666666666</v>
       </c>
       <c r="H4">
-        <v>8.710287000000001</v>
+        <v>16.080578</v>
       </c>
       <c r="I4">
-        <v>0.1009355068972313</v>
+        <v>0.2103812342497758</v>
       </c>
       <c r="J4">
-        <v>0.1009355068972313</v>
+        <v>0.2103812342497758</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.073755</v>
       </c>
       <c r="O4">
-        <v>0.08088989301323213</v>
+        <v>0.1284798252444435</v>
       </c>
       <c r="P4">
-        <v>0.08088989301323214</v>
+        <v>0.1284798252444435</v>
       </c>
       <c r="Q4">
-        <v>0.071380801965</v>
+        <v>0.13178033671</v>
       </c>
       <c r="R4">
-        <v>0.6424272176850001</v>
+        <v>1.18602303039</v>
       </c>
       <c r="S4">
-        <v>0.008164662354153394</v>
+        <v>0.02702974421112153</v>
       </c>
       <c r="T4">
-        <v>0.008164662354153395</v>
+        <v>0.02702974421112153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.903429</v>
+        <v>5.360192666666666</v>
       </c>
       <c r="H5">
-        <v>8.710287000000001</v>
+        <v>16.080578</v>
       </c>
       <c r="I5">
-        <v>0.1009355068972313</v>
+        <v>0.2103812342497758</v>
       </c>
       <c r="J5">
-        <v>0.1009355068972313</v>
+        <v>0.2103812342497758</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2793466666666667</v>
+        <v>0.166768</v>
       </c>
       <c r="N5">
-        <v>0.83804</v>
+        <v>0.500304</v>
       </c>
       <c r="O5">
-        <v>0.9191101069867678</v>
+        <v>0.8715201747555565</v>
       </c>
       <c r="P5">
-        <v>0.9191101069867679</v>
+        <v>0.8715201747555564</v>
       </c>
       <c r="Q5">
-        <v>0.8110632130533335</v>
+        <v>0.8939086106346666</v>
       </c>
       <c r="R5">
-        <v>7.299568917480001</v>
+        <v>8.045177495711998</v>
       </c>
       <c r="S5">
-        <v>0.09277084454307791</v>
+        <v>0.1833514900386543</v>
       </c>
       <c r="T5">
-        <v>0.09277084454307792</v>
+        <v>0.1833514900386543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.00607133333333</v>
+        <v>16.26259133333333</v>
       </c>
       <c r="H6">
-        <v>66.018214</v>
+        <v>48.787774</v>
       </c>
       <c r="I6">
-        <v>0.7650243780187601</v>
+        <v>0.6382875112088087</v>
       </c>
       <c r="J6">
-        <v>0.7650243780187601</v>
+        <v>0.6382875112088088</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.073755</v>
       </c>
       <c r="O6">
-        <v>0.08088989301323213</v>
+        <v>0.1284798252444435</v>
       </c>
       <c r="P6">
-        <v>0.08088989301323214</v>
+        <v>0.1284798252444435</v>
       </c>
       <c r="Q6">
-        <v>0.54101926373</v>
+        <v>0.39981580793</v>
       </c>
       <c r="R6">
-        <v>4.86917337357</v>
+        <v>3.59834227137</v>
       </c>
       <c r="S6">
-        <v>0.06188274009045196</v>
+        <v>0.08200706789581852</v>
       </c>
       <c r="T6">
-        <v>0.06188274009045197</v>
+        <v>0.08200706789581853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.00607133333333</v>
+        <v>16.26259133333333</v>
       </c>
       <c r="H7">
-        <v>66.018214</v>
+        <v>48.787774</v>
       </c>
       <c r="I7">
-        <v>0.7650243780187601</v>
+        <v>0.6382875112088087</v>
       </c>
       <c r="J7">
-        <v>0.7650243780187601</v>
+        <v>0.6382875112088088</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2793466666666667</v>
+        <v>0.166768</v>
       </c>
       <c r="N7">
-        <v>0.83804</v>
+        <v>0.500304</v>
       </c>
       <c r="O7">
-        <v>0.9191101069867678</v>
+        <v>0.8715201747555565</v>
       </c>
       <c r="P7">
-        <v>0.9191101069867679</v>
+        <v>0.8715201747555564</v>
       </c>
       <c r="Q7">
-        <v>6.147322673395556</v>
+        <v>2.712079831477333</v>
       </c>
       <c r="R7">
-        <v>55.32590406056</v>
+        <v>24.408718483296</v>
       </c>
       <c r="S7">
-        <v>0.7031416379283081</v>
+        <v>0.5562804433129902</v>
       </c>
       <c r="T7">
-        <v>0.7031416379283082</v>
+        <v>0.5562804433129902</v>
       </c>
     </row>
   </sheetData>
